--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf8-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf8-Fgfr1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4582203333333334</v>
+        <v>0.7103813333333333</v>
       </c>
       <c r="H2">
-        <v>1.374661</v>
+        <v>2.131144</v>
       </c>
       <c r="I2">
-        <v>0.6685245695950076</v>
+        <v>0.7576743564291667</v>
       </c>
       <c r="J2">
-        <v>0.6685245695950076</v>
+        <v>0.7576743564291667</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.769169999999999</v>
+        <v>7.955277333333332</v>
       </c>
       <c r="N2">
-        <v>11.30751</v>
+        <v>23.865832</v>
       </c>
       <c r="O2">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675284</v>
       </c>
       <c r="P2">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675283</v>
       </c>
       <c r="Q2">
-        <v>1.72711033379</v>
+        <v>5.651280519089776</v>
       </c>
       <c r="R2">
-        <v>15.54399300411</v>
+        <v>50.86152467180799</v>
       </c>
       <c r="S2">
-        <v>0.01796088206003087</v>
+        <v>0.03800210502059936</v>
       </c>
       <c r="T2">
-        <v>0.01796088206003087</v>
+        <v>0.03800210502059935</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4582203333333334</v>
+        <v>0.7103813333333333</v>
       </c>
       <c r="H3">
-        <v>1.374661</v>
+        <v>2.131144</v>
       </c>
       <c r="I3">
-        <v>0.6685245695950076</v>
+        <v>0.7576743564291667</v>
       </c>
       <c r="J3">
-        <v>0.6685245695950076</v>
+        <v>0.7576743564291667</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.48060333333332</v>
+        <v>82.48060333333333</v>
       </c>
       <c r="N3">
         <v>247.44181</v>
       </c>
       <c r="O3">
-        <v>0.5879175050094569</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="P3">
-        <v>0.5879175050094571</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="Q3">
-        <v>37.79428955293444</v>
+        <v>58.59268097007111</v>
       </c>
       <c r="R3">
-        <v>340.14860597641</v>
+        <v>527.33412873064</v>
       </c>
       <c r="S3">
-        <v>0.393037296993818</v>
+        <v>0.394007200340101</v>
       </c>
       <c r="T3">
-        <v>0.393037296993818</v>
+        <v>0.394007200340101</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4582203333333334</v>
+        <v>0.7103813333333333</v>
       </c>
       <c r="H4">
-        <v>1.374661</v>
+        <v>2.131144</v>
       </c>
       <c r="I4">
-        <v>0.6685245695950076</v>
+        <v>0.7576743564291667</v>
       </c>
       <c r="J4">
-        <v>0.6685245695950076</v>
+        <v>0.7576743564291667</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>53.47143866666666</v>
+        <v>66.90297433333333</v>
       </c>
       <c r="N4">
-        <v>160.414316</v>
+        <v>200.708923</v>
       </c>
       <c r="O4">
-        <v>0.3811416689464024</v>
+        <v>0.4218083439585467</v>
       </c>
       <c r="P4">
-        <v>0.3811416689464025</v>
+        <v>0.4218083439585465</v>
       </c>
       <c r="Q4">
-        <v>24.50170044965289</v>
+        <v>47.52662411087911</v>
       </c>
       <c r="R4">
-        <v>220.515304046876</v>
+        <v>427.739616997912</v>
       </c>
       <c r="S4">
-        <v>0.2548025701871166</v>
+        <v>0.3195933655452444</v>
       </c>
       <c r="T4">
-        <v>0.2548025701871166</v>
+        <v>0.3195933655452444</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4582203333333334</v>
+        <v>0.7103813333333333</v>
       </c>
       <c r="H5">
-        <v>1.374661</v>
+        <v>2.131144</v>
       </c>
       <c r="I5">
-        <v>0.6685245695950076</v>
+        <v>0.7576743564291667</v>
       </c>
       <c r="J5">
-        <v>0.6685245695950076</v>
+        <v>0.7576743564291667</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5716056666666667</v>
+        <v>1.271033333333333</v>
       </c>
       <c r="N5">
-        <v>1.714817</v>
+        <v>3.8131</v>
       </c>
       <c r="O5">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067616</v>
       </c>
       <c r="P5">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067614</v>
       </c>
       <c r="Q5">
-        <v>0.2619213391152223</v>
+        <v>0.9029183540444445</v>
       </c>
       <c r="R5">
-        <v>2.357292052037</v>
+        <v>8.126265186400001</v>
       </c>
       <c r="S5">
-        <v>0.002723820354042221</v>
+        <v>0.006071685523221963</v>
       </c>
       <c r="T5">
-        <v>0.002723820354042221</v>
+        <v>0.006071685523221961</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.6816</v>
       </c>
       <c r="I6">
-        <v>0.3314754304049923</v>
+        <v>0.2423256435708333</v>
       </c>
       <c r="J6">
-        <v>0.3314754304049923</v>
+        <v>0.2423256435708333</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.769169999999999</v>
+        <v>7.955277333333332</v>
       </c>
       <c r="N6">
-        <v>11.30751</v>
+        <v>23.865832</v>
       </c>
       <c r="O6">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675284</v>
       </c>
       <c r="P6">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675283</v>
       </c>
       <c r="Q6">
-        <v>0.8563554239999999</v>
+        <v>1.807439010133333</v>
       </c>
       <c r="R6">
-        <v>7.707198815999999</v>
+        <v>16.2669510912</v>
       </c>
       <c r="S6">
-        <v>0.008905568145249655</v>
+        <v>0.01215414574615348</v>
       </c>
       <c r="T6">
-        <v>0.008905568145249659</v>
+        <v>0.01215414574615348</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.6816</v>
       </c>
       <c r="I7">
-        <v>0.3314754304049923</v>
+        <v>0.2423256435708333</v>
       </c>
       <c r="J7">
-        <v>0.3314754304049923</v>
+        <v>0.2423256435708333</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>82.48060333333332</v>
+        <v>82.48060333333333</v>
       </c>
       <c r="N7">
         <v>247.44181</v>
       </c>
       <c r="O7">
-        <v>0.5879175050094569</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="P7">
-        <v>0.5879175050094571</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="Q7">
         <v>18.73959307733333</v>
@@ -883,10 +883,10 @@
         <v>168.656337696</v>
       </c>
       <c r="S7">
-        <v>0.1948802080156389</v>
+        <v>0.126014623015532</v>
       </c>
       <c r="T7">
-        <v>0.194880208015639</v>
+        <v>0.126014623015532</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.6816</v>
       </c>
       <c r="I8">
-        <v>0.3314754304049923</v>
+        <v>0.2423256435708333</v>
       </c>
       <c r="J8">
-        <v>0.3314754304049923</v>
+        <v>0.2423256435708333</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.47143866666666</v>
+        <v>66.90297433333333</v>
       </c>
       <c r="N8">
-        <v>160.414316</v>
+        <v>200.708923</v>
       </c>
       <c r="O8">
-        <v>0.3811416689464024</v>
+        <v>0.4218083439585467</v>
       </c>
       <c r="P8">
-        <v>0.3811416689464025</v>
+        <v>0.4218083439585465</v>
       </c>
       <c r="Q8">
-        <v>12.14871086506666</v>
+        <v>15.20035576853333</v>
       </c>
       <c r="R8">
-        <v>109.3383977856</v>
+        <v>136.8032019168</v>
       </c>
       <c r="S8">
-        <v>0.1263390987592858</v>
+        <v>0.1022149784133023</v>
       </c>
       <c r="T8">
-        <v>0.1263390987592859</v>
+        <v>0.1022149784133022</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.6816</v>
       </c>
       <c r="I9">
-        <v>0.3314754304049923</v>
+        <v>0.2423256435708333</v>
       </c>
       <c r="J9">
-        <v>0.3314754304049923</v>
+        <v>0.2423256435708333</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5716056666666667</v>
+        <v>1.271033333333333</v>
       </c>
       <c r="N9">
-        <v>1.714817</v>
+        <v>3.8131</v>
       </c>
       <c r="O9">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067616</v>
       </c>
       <c r="P9">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067614</v>
       </c>
       <c r="Q9">
-        <v>0.1298688074666667</v>
+        <v>0.2887787733333333</v>
       </c>
       <c r="R9">
-        <v>1.1688192672</v>
+        <v>2.59900896</v>
       </c>
       <c r="S9">
-        <v>0.00135055548481784</v>
+        <v>0.001941896395845654</v>
       </c>
       <c r="T9">
-        <v>0.001350555484817841</v>
+        <v>0.001941896395845653</v>
       </c>
     </row>
   </sheetData>
